--- a/Data/EC/NIT-9017836861.xlsx
+++ b/Data/EC/NIT-9017836861.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C04B292-5FC3-492B-A7F9-10049A3BC3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3026607-556A-4730-A25D-E1E6106593D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50A3FC13-AF6E-4B8D-8410-E177B89E705E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97180A85-5BA1-4BF0-88AD-B3B17D379717}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,352 +65,352 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73189747</t>
+  </si>
+  <si>
+    <t>DANIS DANIEL VIDEZ OLIVERA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1050949953</t>
+  </si>
+  <si>
+    <t>ALEJANDRO REDONDO MANJARRES</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>9289927</t>
+  </si>
+  <si>
+    <t>ALFREDO MARTINEZ CARDONA</t>
+  </si>
+  <si>
+    <t>73158889</t>
+  </si>
+  <si>
+    <t>LIBARDO ANTONIO RUIZ CORRALES</t>
+  </si>
+  <si>
+    <t>73125607</t>
+  </si>
+  <si>
+    <t>OMAR ABEL CORRALES YOUNG</t>
+  </si>
+  <si>
+    <t>9289872</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ROMERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>9281970</t>
+  </si>
+  <si>
+    <t>CAMILO ENRIQUE CANTILLO ACUÑA</t>
+  </si>
+  <si>
+    <t>73144082</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS DAZA MOLINA</t>
+  </si>
+  <si>
+    <t>8980933</t>
+  </si>
+  <si>
+    <t>ORLANDO LUIS MERCADO MARRIAGA</t>
+  </si>
+  <si>
+    <t>72072781</t>
+  </si>
+  <si>
+    <t>JESUS GARCIA RIVALDO</t>
+  </si>
+  <si>
+    <t>73210447</t>
+  </si>
+  <si>
+    <t>MANUEL RODRIGUEZ FLOREZ</t>
+  </si>
+  <si>
+    <t>73133594</t>
+  </si>
+  <si>
+    <t>RENATO VELEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>73241216</t>
+  </si>
+  <si>
+    <t>EVER RAFAEL RAMIREZ QUIROZ</t>
+  </si>
+  <si>
+    <t>9290881</t>
+  </si>
+  <si>
+    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
+  </si>
+  <si>
+    <t>1050965496</t>
+  </si>
+  <si>
+    <t>IVAN DARIO HEREDIA PETRO</t>
+  </si>
+  <si>
+    <t>9288457</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER HUETO JIMENEZ</t>
+  </si>
+  <si>
+    <t>1051818216</t>
+  </si>
+  <si>
+    <t>DAGOBERTO MANUEL SERRANO MORA</t>
+  </si>
+  <si>
+    <t>1047452244</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID CASTELLANOS LIÑAN</t>
+  </si>
+  <si>
+    <t>18878548</t>
+  </si>
+  <si>
+    <t>JAVIER FRANCISCO ACOSTA MEDINA</t>
+  </si>
+  <si>
+    <t>1044916179</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO RODRIGUEZ BADILLO</t>
+  </si>
+  <si>
+    <t>9290905</t>
+  </si>
+  <si>
+    <t>ALVARO BALLESTEROS VIOLA</t>
+  </si>
+  <si>
+    <t>73476327</t>
+  </si>
+  <si>
+    <t>JHON JOSE HERRERA OROZCO</t>
+  </si>
+  <si>
+    <t>1010001796</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES PEREZ ALDANA</t>
+  </si>
+  <si>
+    <t>1050950497</t>
+  </si>
+  <si>
+    <t>EDWIN ANTONIO RODRIGUEZ CARDONA</t>
+  </si>
+  <si>
+    <t>73476267</t>
+  </si>
+  <si>
+    <t>OSVALDO RAFAEL JULIO GUERRERO</t>
+  </si>
+  <si>
+    <t>1143358549</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID VELEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1137195468</t>
+  </si>
+  <si>
+    <t>SAMUEL ZABALETA ACOSTA</t>
+  </si>
+  <si>
+    <t>1044924826</t>
+  </si>
+  <si>
+    <t>MAYKY RAFAEL GUARDO PEREZ</t>
+  </si>
+  <si>
+    <t>3881928</t>
+  </si>
+  <si>
+    <t>VICTOR CONTRERAS VASQUEZ</t>
+  </si>
+  <si>
+    <t>9041773</t>
+  </si>
+  <si>
+    <t>JAIME MELENDEZ URUETA</t>
+  </si>
+  <si>
+    <t>1050946091</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN CASTILLO PUELLO</t>
+  </si>
+  <si>
+    <t>1044926873</t>
+  </si>
+  <si>
+    <t>DWAYT DAVID MURILLO ESALAS</t>
+  </si>
+  <si>
+    <t>1001835410</t>
+  </si>
+  <si>
+    <t>ROBER LUIS MACHACON PATERNINA</t>
+  </si>
+  <si>
+    <t>9149454</t>
+  </si>
+  <si>
+    <t>WALTER VERBEL PACHECO</t>
+  </si>
+  <si>
+    <t>1047510608</t>
+  </si>
+  <si>
+    <t>JULIO NELSON HERRERA CASSIANI</t>
+  </si>
+  <si>
+    <t>74189284</t>
+  </si>
+  <si>
+    <t>DIOGENES TIBADUIZA ARBOLEDA</t>
+  </si>
+  <si>
+    <t>1143380306</t>
+  </si>
+  <si>
+    <t>EDWIN DAVID MARTINEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>73194059</t>
+  </si>
+  <si>
+    <t>WILLYS RAFAEL MORENO SIMANCAS</t>
+  </si>
+  <si>
+    <t>1002390841</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS MORALES CAMARGO</t>
+  </si>
+  <si>
+    <t>1001937399</t>
+  </si>
+  <si>
+    <t>KEVIN JOSE JULIO MIRANDA</t>
+  </si>
+  <si>
+    <t>1050955327</t>
+  </si>
+  <si>
+    <t>WILSON ENRIQUE SANJUAN MUÃ?OZ</t>
+  </si>
+  <si>
+    <t>1050971902</t>
+  </si>
+  <si>
+    <t>ARIEL HUETO TABORDA</t>
+  </si>
+  <si>
+    <t>9286379</t>
+  </si>
+  <si>
+    <t>RAFAEL FERNANDO HUETO CERDA</t>
+  </si>
+  <si>
+    <t>1047392997</t>
+  </si>
+  <si>
+    <t>JULIA MARGARITA PINEDO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1001835820</t>
+  </si>
+  <si>
+    <t>DAMIAN DARIO JINETE PATERNINA</t>
+  </si>
+  <si>
+    <t>1050976282</t>
+  </si>
+  <si>
+    <t>JAIDER RAMON JIMENEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>1007264623</t>
+  </si>
+  <si>
+    <t>IVAN ANDRES BELTRAN REVOLLEDO</t>
+  </si>
+  <si>
+    <t>1007130355</t>
+  </si>
+  <si>
+    <t>OSCAR LUIS PATERNINA MARRUGO</t>
+  </si>
+  <si>
+    <t>1052084619</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE FERNANDEZ VESCAINO</t>
+  </si>
+  <si>
+    <t>1049582557</t>
+  </si>
+  <si>
+    <t>KARINA NAVARRO AGUILAR</t>
+  </si>
+  <si>
     <t>1100403843</t>
   </si>
   <si>
     <t>JOSE ANTONIO ARROYO ATENCIA</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1047452244</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID CASTELLANOS LIÑAN</t>
-  </si>
-  <si>
-    <t>1001937399</t>
-  </si>
-  <si>
-    <t>KEVIN JOSE JULIO MIRANDA</t>
-  </si>
-  <si>
-    <t>1044916179</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO RODRIGUEZ BADILLO</t>
-  </si>
-  <si>
-    <t>1007264623</t>
-  </si>
-  <si>
-    <t>IVAN ANDRES BELTRAN REVOLLEDO</t>
-  </si>
-  <si>
-    <t>1050949953</t>
-  </si>
-  <si>
-    <t>ALEJANDRO REDONDO MANJARRES</t>
-  </si>
-  <si>
-    <t>1007130355</t>
-  </si>
-  <si>
-    <t>OSCAR LUIS PATERNINA MARRUGO</t>
-  </si>
-  <si>
-    <t>1044926873</t>
-  </si>
-  <si>
-    <t>DWAYT DAVID MURILLO ESALAS</t>
-  </si>
-  <si>
-    <t>73133594</t>
-  </si>
-  <si>
-    <t>RENATO VELEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>9286379</t>
-  </si>
-  <si>
-    <t>RAFAEL FERNANDO HUETO CERDA</t>
-  </si>
-  <si>
-    <t>3881928</t>
-  </si>
-  <si>
-    <t>VICTOR CONTRERAS VASQUEZ</t>
-  </si>
-  <si>
-    <t>1001835410</t>
-  </si>
-  <si>
-    <t>ROBER LUIS MACHACON PATERNINA</t>
-  </si>
-  <si>
-    <t>1137195468</t>
-  </si>
-  <si>
-    <t>SAMUEL ZABALETA ACOSTA</t>
-  </si>
-  <si>
-    <t>73125607</t>
-  </si>
-  <si>
-    <t>OMAR ABEL CORRALES YOUNG</t>
-  </si>
-  <si>
-    <t>9281970</t>
-  </si>
-  <si>
-    <t>CAMILO ENRIQUE CANTILLO ACUÑA</t>
-  </si>
-  <si>
-    <t>73476327</t>
-  </si>
-  <si>
-    <t>JHON JOSE HERRERA OROZCO</t>
-  </si>
-  <si>
-    <t>73241216</t>
-  </si>
-  <si>
-    <t>EVER RAFAEL RAMIREZ QUIROZ</t>
-  </si>
-  <si>
-    <t>73194059</t>
-  </si>
-  <si>
-    <t>WILLYS RAFAEL MORENO SIMANCAS</t>
-  </si>
-  <si>
-    <t>9149454</t>
-  </si>
-  <si>
-    <t>WALTER VERBEL PACHECO</t>
-  </si>
-  <si>
-    <t>1050955327</t>
-  </si>
-  <si>
-    <t>WILSON ENRIQUE SANJUAN MUÃ?OZ</t>
-  </si>
-  <si>
-    <t>8980933</t>
-  </si>
-  <si>
-    <t>ORLANDO LUIS MERCADO MARRIAGA</t>
-  </si>
-  <si>
-    <t>1050950497</t>
-  </si>
-  <si>
-    <t>EDWIN ANTONIO RODRIGUEZ CARDONA</t>
-  </si>
-  <si>
-    <t>1047392997</t>
-  </si>
-  <si>
-    <t>JULIA MARGARITA PINEDO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1050976282</t>
-  </si>
-  <si>
-    <t>JAIDER RAMON JIMENEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>9288457</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER HUETO JIMENEZ</t>
-  </si>
-  <si>
-    <t>9041773</t>
-  </si>
-  <si>
-    <t>JAIME MELENDEZ URUETA</t>
-  </si>
-  <si>
-    <t>1143358549</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID VELEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>73210447</t>
-  </si>
-  <si>
-    <t>MANUEL RODRIGUEZ FLOREZ</t>
-  </si>
-  <si>
     <t>1050954497</t>
   </si>
   <si>
     <t>YORLEDIS BARRIOS GALVIS</t>
   </si>
   <si>
-    <t>1001835820</t>
-  </si>
-  <si>
-    <t>DAMIAN DARIO JINETE PATERNINA</t>
-  </si>
-  <si>
-    <t>1051818216</t>
-  </si>
-  <si>
-    <t>DAGOBERTO MANUEL SERRANO MORA</t>
-  </si>
-  <si>
-    <t>73158889</t>
-  </si>
-  <si>
-    <t>LIBARDO ANTONIO RUIZ CORRALES</t>
-  </si>
-  <si>
-    <t>1050971902</t>
-  </si>
-  <si>
-    <t>ARIEL HUETO TABORDA</t>
-  </si>
-  <si>
-    <t>1049582557</t>
-  </si>
-  <si>
-    <t>KARINA NAVARRO AGUILAR</t>
-  </si>
-  <si>
-    <t>1052084619</t>
-  </si>
-  <si>
-    <t>MARIA CELESTE FERNANDEZ VESCAINO</t>
-  </si>
-  <si>
-    <t>1044924826</t>
-  </si>
-  <si>
-    <t>MAYKY RAFAEL GUARDO PEREZ</t>
-  </si>
-  <si>
-    <t>73144082</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS DAZA MOLINA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>18878548</t>
-  </si>
-  <si>
-    <t>JAVIER FRANCISCO ACOSTA MEDINA</t>
-  </si>
-  <si>
-    <t>1047510608</t>
-  </si>
-  <si>
-    <t>JULIO NELSON HERRERA CASSIANI</t>
-  </si>
-  <si>
-    <t>73476267</t>
-  </si>
-  <si>
-    <t>OSVALDO RAFAEL JULIO GUERRERO</t>
-  </si>
-  <si>
-    <t>1010001796</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES PEREZ ALDANA</t>
-  </si>
-  <si>
-    <t>1050946091</t>
-  </si>
-  <si>
-    <t>JUAN ESTEBAN CASTILLO PUELLO</t>
-  </si>
-  <si>
-    <t>9289872</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS ROMERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>74189284</t>
-  </si>
-  <si>
-    <t>DIOGENES TIBADUIZA ARBOLEDA</t>
-  </si>
-  <si>
-    <t>1002390841</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS MORALES CAMARGO</t>
-  </si>
-  <si>
-    <t>9290905</t>
-  </si>
-  <si>
-    <t>ALVARO BALLESTEROS VIOLA</t>
-  </si>
-  <si>
-    <t>73189747</t>
-  </si>
-  <si>
-    <t>DANIS DANIEL VIDEZ OLIVERA</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
     <t>1050964584</t>
   </si>
   <si>
     <t>JAMES ELIAS DEL RIO GARCIA</t>
   </si>
   <si>
-    <t>1050965496</t>
-  </si>
-  <si>
-    <t>IVAN DARIO HEREDIA PETRO</t>
-  </si>
-  <si>
-    <t>9289927</t>
-  </si>
-  <si>
-    <t>ALFREDO MARTINEZ CARDONA</t>
-  </si>
-  <si>
-    <t>9290881</t>
-  </si>
-  <si>
-    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
-  </si>
-  <si>
-    <t>1143380306</t>
-  </si>
-  <si>
-    <t>EDWIN DAVID MARTINEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>72072781</t>
-  </si>
-  <si>
-    <t>JESUS GARCIA RIVALDO</t>
-  </si>
-  <si>
     <t>1002058053</t>
   </si>
   <si>
     <t>ALLEN DAVID TORRES ORTEGA</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -824,7 +824,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F55D6D5-F3EA-829B-29E6-A5DE53BE06B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA01B95A-8CC1-52EB-5403-AD3E20F5D475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0F58B-15FA-476B-9ECF-4039FAD7D9C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0330E8D2-1671-48FC-92CF-45F0CF812E72}">
   <dimension ref="B2:J416"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1353,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1373,13 +1373,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>72000</v>
+        <v>15600</v>
       </c>
       <c r="G17" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1390,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1436,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1505,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1551,16 +1551,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G25" s="18">
         <v>1300000</v>
@@ -1574,16 +1574,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
         <v>1300000</v>
@@ -1597,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F28" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1643,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1666,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1689,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>54000</v>
+        <v>21600</v>
       </c>
       <c r="G31" s="18">
-        <v>1350000</v>
+        <v>689455</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1712,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G32" s="18">
-        <v>1350000</v>
+        <v>689455</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1735,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>689455</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1781,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G35" s="18">
-        <v>1350000</v>
+        <v>689455</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F36" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G36" s="18">
-        <v>1350000</v>
+        <v>689455</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1827,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G37" s="18">
-        <v>1350000</v>
+        <v>689455</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>689455</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1873,19 +1873,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1896,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
         <v>54000</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1919,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1965,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1988,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F44" s="18">
-        <v>39866</v>
+        <v>54000</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G45" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2034,13 +2034,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F46" s="18">
         <v>54000</v>
@@ -2057,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>72000</v>
+        <v>15600</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -2103,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -2126,16 +2126,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
         <v>1300000</v>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2172,13 +2172,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2218,16 +2218,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="G54" s="18">
         <v>1500000</v>
@@ -2241,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G55" s="18">
         <v>1500000</v>
@@ -2264,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2310,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E58" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2356,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G60" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2379,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F61" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G61" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2425,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F63" s="18">
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2448,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2471,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2494,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F66" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2517,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F67" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F68" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F69" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1550000</v>
+        <v>1500000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2609,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F71" s="18">
         <v>54000</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2632,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F72" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2655,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F73" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>1350000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2678,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F74" s="18">
         <v>54000</v>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F75" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G75" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2724,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G76" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2747,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F77" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G77" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2770,16 +2770,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F78" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G78" s="18">
         <v>1350000</v>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F79" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2816,13 +2816,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F80" s="18">
         <v>54000</v>
@@ -2839,13 +2839,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F81" s="18">
         <v>54000</v>
@@ -2862,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F82" s="18">
-        <v>52000</v>
+        <v>46800</v>
       </c>
       <c r="G82" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F83" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G83" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2908,13 +2908,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2931,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
@@ -2954,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F86" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2977,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F87" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3000,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -3023,13 +3023,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -3046,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F90" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G90" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3069,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>30000</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3092,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G92" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3115,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F93" s="18">
-        <v>67200</v>
+        <v>100000</v>
       </c>
       <c r="G93" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3138,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F94" s="18">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="G94" s="18">
-        <v>1350000</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3161,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F97" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3230,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E98" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F98" s="18">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="G98" s="18">
-        <v>1350000</v>
+        <v>1160000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3253,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F99" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G99" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="F100" s="18">
         <v>54000</v>
       </c>
       <c r="G100" s="18">
-        <v>1550000</v>
+        <v>1350000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F101" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G101" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3322,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F102" s="18">
         <v>54000</v>
       </c>
       <c r="G102" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3345,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F104" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3391,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F105" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G105" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3414,19 +3414,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F106" s="18">
         <v>54000</v>
       </c>
       <c r="G106" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3437,16 +3437,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G107" s="18">
         <v>1300000</v>
@@ -3460,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F108" s="18">
         <v>54000</v>
       </c>
       <c r="G108" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3483,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F109" s="18">
         <v>54000</v>
       </c>
       <c r="G109" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3506,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F110" s="18">
         <v>54000</v>
       </c>
       <c r="G110" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3529,16 +3529,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="E111" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G111" s="18">
         <v>1300000</v>
@@ -3552,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F112" s="18">
-        <v>72000</v>
+        <v>25200</v>
       </c>
       <c r="G112" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3575,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F113" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G113" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3598,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F114" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G114" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3621,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F115" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G115" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3644,13 +3644,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F116" s="18">
         <v>52000</v>
@@ -3667,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F117" s="18">
         <v>52000</v>
@@ -3690,13 +3690,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F118" s="18">
         <v>52000</v>
@@ -3713,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F119" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G119" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3736,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F120" s="18">
         <v>54000</v>
       </c>
       <c r="G120" s="18">
-        <v>1350000</v>
+        <v>1160000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3759,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F121" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G121" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3782,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F122" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G122" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3805,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F123" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G123" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3828,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="E124" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F124" s="18">
         <v>54000</v>
       </c>
       <c r="G124" s="18">
-        <v>1350000</v>
+        <v>1160000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3851,16 +3851,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F125" s="18">
-        <v>100000</v>
+        <v>54000</v>
       </c>
       <c r="G125" s="18">
         <v>1160000</v>
@@ -3874,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F126" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G126" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3897,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F127" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G127" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3920,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F128" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G128" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3943,13 +3943,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F129" s="18">
         <v>54000</v>
@@ -3966,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F130" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G130" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3989,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F131" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G131" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4012,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F132" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G132" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4035,13 +4035,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F133" s="18">
         <v>54000</v>
@@ -4058,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F134" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G134" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4081,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F135" s="18">
-        <v>52000</v>
+        <v>21600</v>
       </c>
       <c r="G135" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4104,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F136" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G136" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4127,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F137" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G137" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4150,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F138" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G138" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4173,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F139" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G139" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4196,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F140" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G140" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4219,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F141" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G141" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4242,13 +4242,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F142" s="18">
         <v>72000</v>
@@ -4265,16 +4265,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F143" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G143" s="18">
         <v>1300000</v>
@@ -4288,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F144" s="18">
-        <v>25200</v>
+        <v>52000</v>
       </c>
       <c r="G144" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4311,13 +4311,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="F145" s="18">
         <v>52000</v>
@@ -4334,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F146" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G146" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4357,19 +4357,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F147" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G147" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4380,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F148" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G148" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4403,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F149" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G149" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4426,16 +4426,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F150" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G150" s="18">
         <v>1300000</v>
@@ -4449,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F151" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G151" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4472,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F152" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G152" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4495,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F153" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G153" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4518,13 +4518,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F154" s="18">
         <v>52000</v>
@@ -4541,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F155" s="18">
         <v>52000</v>
@@ -4564,13 +4564,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F156" s="18">
         <v>52000</v>
@@ -4587,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F157" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G157" s="18">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4610,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F158" s="18">
-        <v>54000</v>
+        <v>21600</v>
       </c>
       <c r="G158" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4633,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F159" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G159" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4656,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F160" s="18">
-        <v>46800</v>
+        <v>72000</v>
       </c>
       <c r="G160" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4679,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F161" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G161" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4702,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F162" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G162" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4725,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F163" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G163" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4748,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F164" s="18">
-        <v>52000</v>
+        <v>67200</v>
       </c>
       <c r="G164" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4771,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F165" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G165" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4794,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F166" s="18">
         <v>54000</v>
@@ -4817,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F167" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G167" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4840,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F168" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G168" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4863,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F169" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G169" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4886,13 +4886,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F170" s="18">
         <v>54000</v>
@@ -4909,13 +4909,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F171" s="18">
         <v>54000</v>
@@ -4932,19 +4932,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F172" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G172" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4955,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F173" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G173" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4978,16 +4978,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F174" s="18">
-        <v>54000</v>
+        <v>46800</v>
       </c>
       <c r="G174" s="18">
         <v>1350000</v>
@@ -5001,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F175" s="18">
-        <v>60000</v>
+        <v>16200</v>
       </c>
       <c r="G175" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5024,19 +5024,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F176" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G176" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5047,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F177" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G177" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5070,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F178" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G178" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5093,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F179" s="18">
         <v>54000</v>
@@ -5116,13 +5116,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F180" s="18">
         <v>54000</v>
@@ -5139,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F181" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G181" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5162,19 +5162,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F182" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G182" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5185,19 +5185,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F183" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G183" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5208,19 +5208,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F184" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G184" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5231,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F185" s="18">
-        <v>100000</v>
+        <v>54000</v>
       </c>
       <c r="G185" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5254,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F186" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G186" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5277,13 +5277,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F187" s="18">
         <v>54000</v>
@@ -5300,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F188" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G188" s="18">
-        <v>908526</v>
+        <v>1350000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5323,19 +5323,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F189" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G189" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5346,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F190" s="18">
-        <v>72000</v>
+        <v>15600</v>
       </c>
       <c r="G190" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5369,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F191" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G191" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5392,19 +5392,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F192" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G192" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5415,13 +5415,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F193" s="18">
         <v>52000</v>
@@ -5438,19 +5438,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F194" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G194" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5461,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F195" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G195" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5484,13 +5484,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F196" s="18">
         <v>52000</v>
@@ -5507,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F197" s="18">
         <v>52000</v>
@@ -5530,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F198" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G198" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5553,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F199" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G199" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5576,19 +5576,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F200" s="18">
         <v>54000</v>
       </c>
       <c r="G200" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5599,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F201" s="18">
         <v>54000</v>
       </c>
       <c r="G201" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5622,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F202" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G202" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5645,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F203" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G203" s="18">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5668,19 +5668,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F204" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G204" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5691,16 +5691,16 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F205" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G205" s="18">
         <v>1500000</v>
@@ -5714,16 +5714,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F206" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G206" s="18">
         <v>1350000</v>
@@ -5737,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F207" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G207" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5760,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F208" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G208" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5783,13 +5783,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F209" s="18">
         <v>54000</v>
@@ -5806,19 +5806,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F210" s="18">
         <v>54000</v>
       </c>
       <c r="G210" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5829,13 +5829,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F211" s="18">
         <v>54000</v>
@@ -5852,13 +5852,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F212" s="18">
         <v>54000</v>
@@ -5875,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F213" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G213" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5898,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F214" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G214" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5921,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D215" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E215" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E215" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F215" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G215" s="18">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5944,13 +5944,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F216" s="18">
         <v>52000</v>
@@ -5967,13 +5967,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F217" s="18">
         <v>52000</v>
@@ -5990,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F218" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G218" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6013,13 +6013,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F219" s="18">
         <v>52000</v>
@@ -6036,19 +6036,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F220" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G220" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6059,19 +6059,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F221" s="18">
-        <v>60000</v>
+        <v>39866</v>
       </c>
       <c r="G221" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6082,19 +6082,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F222" s="18">
-        <v>72000</v>
+        <v>15600</v>
       </c>
       <c r="G222" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6105,13 +6105,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F223" s="18">
         <v>52000</v>
@@ -6128,19 +6128,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F224" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G224" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6151,13 +6151,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F225" s="18">
         <v>52000</v>
@@ -6174,19 +6174,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F226" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G226" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6197,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F227" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G227" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6220,19 +6220,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F228" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G228" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6243,13 +6243,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F229" s="18">
         <v>52000</v>
@@ -6266,16 +6266,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D230" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D230" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="E230" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F230" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G230" s="18">
         <v>1300000</v>
@@ -6289,13 +6289,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F231" s="18">
         <v>52000</v>
@@ -6312,13 +6312,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F232" s="18">
         <v>52000</v>
@@ -6335,13 +6335,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F233" s="18">
         <v>52000</v>
@@ -6358,19 +6358,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F234" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G234" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6381,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F235" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G235" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6404,13 +6404,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F236" s="18">
         <v>52000</v>
@@ -6427,16 +6427,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F237" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G237" s="18">
         <v>1300000</v>
@@ -6450,13 +6450,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F238" s="18">
         <v>52000</v>
@@ -6473,13 +6473,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F239" s="18">
         <v>52000</v>
@@ -6496,13 +6496,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F240" s="18">
         <v>52000</v>
@@ -6519,19 +6519,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F241" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G241" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6542,13 +6542,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F242" s="18">
         <v>52000</v>
@@ -6565,13 +6565,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F243" s="18">
         <v>52000</v>
@@ -6588,19 +6588,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F244" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G244" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6611,19 +6611,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F245" s="18">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="G245" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6634,19 +6634,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F246" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G246" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6657,16 +6657,16 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F247" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G247" s="18">
         <v>1500000</v>
@@ -6680,19 +6680,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F248" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G248" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6703,19 +6703,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F249" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G249" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6726,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F250" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G250" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6749,19 +6749,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F251" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G251" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6772,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F252" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G252" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6795,19 +6795,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F253" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G253" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6818,19 +6818,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F254" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G254" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6841,19 +6841,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F255" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G255" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6864,13 +6864,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F256" s="18">
         <v>52000</v>
@@ -6887,19 +6887,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F257" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G257" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6910,19 +6910,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F258" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G258" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6933,19 +6933,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F259" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G259" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6956,19 +6956,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F260" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G260" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6979,19 +6979,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F261" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G261" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7002,19 +7002,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F262" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G262" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7025,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F263" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G263" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7048,19 +7048,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F264" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G264" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7071,13 +7071,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F265" s="18">
         <v>54000</v>
@@ -7094,19 +7094,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D266" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E266" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E266" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="F266" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G266" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7117,19 +7117,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F267" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G267" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7140,19 +7140,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E268" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D268" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="F268" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G268" s="18">
-        <v>1550000</v>
+        <v>1350000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7163,19 +7163,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F269" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G269" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7186,19 +7186,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F270" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G270" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7209,19 +7209,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F271" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G271" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7232,19 +7232,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F272" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G272" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7255,13 +7255,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F273" s="18">
         <v>54000</v>
@@ -7278,13 +7278,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F274" s="18">
         <v>54000</v>
@@ -7301,19 +7301,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F275" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G275" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7324,19 +7324,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F276" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G276" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7347,19 +7347,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F277" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G277" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7370,19 +7370,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F278" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G278" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7393,13 +7393,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F279" s="18">
         <v>52000</v>
@@ -7416,13 +7416,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F280" s="18">
         <v>52000</v>
@@ -7439,19 +7439,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F281" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G281" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7462,13 +7462,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F282" s="18">
         <v>52000</v>
@@ -7485,13 +7485,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F283" s="18">
         <v>52000</v>
@@ -7508,19 +7508,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F284" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G284" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7531,19 +7531,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F285" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G285" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7554,13 +7554,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F286" s="18">
         <v>52000</v>
@@ -7577,19 +7577,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F287" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G287" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7600,13 +7600,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F288" s="18">
         <v>52000</v>
@@ -7623,16 +7623,16 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F289" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G289" s="18">
         <v>1350000</v>
@@ -7646,19 +7646,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F290" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G290" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7669,13 +7669,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F291" s="18">
         <v>54000</v>
@@ -7692,19 +7692,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F292" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G292" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7715,19 +7715,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F293" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G293" s="18">
-        <v>908526</v>
+        <v>1350000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7738,19 +7738,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F294" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G294" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7761,19 +7761,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F295" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G295" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7784,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F296" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G296" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7807,19 +7807,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F297" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G297" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7830,19 +7830,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F298" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G298" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7853,19 +7853,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F299" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G299" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7876,19 +7876,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F300" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G300" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7899,19 +7899,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F301" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G301" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7922,19 +7922,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F302" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G302" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7945,19 +7945,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F303" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G303" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7968,16 +7968,16 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F304" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G304" s="18">
         <v>1350000</v>
@@ -7991,19 +7991,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F305" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G305" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8014,13 +8014,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F306" s="18">
         <v>54000</v>
@@ -8037,19 +8037,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F307" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G307" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8060,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F308" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G308" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8083,19 +8083,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F309" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G309" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8106,19 +8106,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F310" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G310" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8129,19 +8129,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F311" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G311" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8152,19 +8152,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F312" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G312" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8175,19 +8175,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F313" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G313" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8198,13 +8198,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F314" s="18">
         <v>52000</v>
@@ -8221,13 +8221,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F315" s="18">
         <v>52000</v>
@@ -8244,19 +8244,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F316" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G316" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8267,13 +8267,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F317" s="18">
         <v>52000</v>
@@ -8290,13 +8290,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F318" s="18">
         <v>52000</v>
@@ -8313,13 +8313,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F319" s="18">
         <v>52000</v>
@@ -8336,16 +8336,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F320" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G320" s="18">
         <v>1300000</v>
@@ -8359,13 +8359,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F321" s="18">
         <v>52000</v>
@@ -8382,19 +8382,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F322" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G322" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8405,19 +8405,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F323" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G323" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8428,19 +8428,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F324" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G324" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8451,19 +8451,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F325" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G325" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8474,13 +8474,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F326" s="18">
         <v>52000</v>
@@ -8497,13 +8497,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F327" s="18">
         <v>52000</v>
@@ -8520,19 +8520,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F328" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G328" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8543,19 +8543,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F329" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G329" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8566,19 +8566,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F330" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G330" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8589,19 +8589,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F331" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G331" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8612,19 +8612,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F332" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G332" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8635,19 +8635,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F333" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G333" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8658,19 +8658,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F334" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G334" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8681,19 +8681,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F335" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G335" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8704,19 +8704,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F336" s="18">
-        <v>54000</v>
+        <v>21600</v>
       </c>
       <c r="G336" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8727,19 +8727,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F337" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G337" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8750,19 +8750,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F338" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G338" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8773,19 +8773,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F339" s="18">
         <v>72000</v>
       </c>
       <c r="G339" s="18">
-        <v>908526</v>
+        <v>1800000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8796,19 +8796,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F340" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G340" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8819,19 +8819,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F341" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G341" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8842,19 +8842,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F342" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G342" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8865,19 +8865,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F343" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G343" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8888,16 +8888,16 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F344" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G344" s="18">
         <v>1300000</v>
@@ -8911,19 +8911,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F345" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G345" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8934,19 +8934,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F346" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G346" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8957,13 +8957,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D347" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D347" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="E347" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F347" s="18">
         <v>52000</v>
@@ -8980,19 +8980,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F348" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G348" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9003,13 +9003,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F349" s="18">
         <v>52000</v>
@@ -9026,13 +9026,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F350" s="18">
         <v>52000</v>
@@ -9049,13 +9049,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F351" s="18">
         <v>52000</v>
@@ -9072,19 +9072,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F352" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G352" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9095,13 +9095,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F353" s="18">
         <v>52000</v>
@@ -9118,13 +9118,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F354" s="18">
         <v>52000</v>
@@ -9141,19 +9141,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F355" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G355" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9164,13 +9164,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F356" s="18">
         <v>52000</v>
@@ -9187,19 +9187,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F357" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G357" s="18">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9210,19 +9210,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F358" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G358" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9233,16 +9233,16 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F359" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G359" s="18">
         <v>1300000</v>
@@ -9256,19 +9256,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F360" s="18">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="G360" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9279,16 +9279,16 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F361" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G361" s="18">
         <v>1300000</v>
@@ -9302,19 +9302,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F362" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G362" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9325,16 +9325,16 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F363" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G363" s="18">
         <v>1300000</v>
@@ -9348,19 +9348,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F364" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G364" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9371,19 +9371,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F365" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G365" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9394,16 +9394,16 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F366" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G366" s="18">
         <v>1300000</v>
@@ -9417,16 +9417,16 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F367" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G367" s="18">
         <v>1300000</v>
@@ -9440,19 +9440,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F368" s="18">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="G368" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9463,19 +9463,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F369" s="18">
-        <v>30000</v>
+        <v>52000</v>
       </c>
       <c r="G369" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9486,16 +9486,16 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F370" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G370" s="18">
         <v>1300000</v>
@@ -9509,16 +9509,16 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F371" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G371" s="18">
         <v>1300000</v>
@@ -9532,19 +9532,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F372" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G372" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9555,19 +9555,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F373" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G373" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9578,19 +9578,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F374" s="18">
-        <v>18000</v>
+        <v>52000</v>
       </c>
       <c r="G374" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9601,16 +9601,16 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F375" s="18">
-        <v>15600</v>
+        <v>39866</v>
       </c>
       <c r="G375" s="18">
         <v>1300000</v>
@@ -9624,19 +9624,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F376" s="18">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="G376" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9647,19 +9647,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D377" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E377" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="F377" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G377" s="18">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9670,16 +9670,16 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F378" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G378" s="18">
         <v>1300000</v>
@@ -9693,19 +9693,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F379" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G379" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9716,16 +9716,16 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F380" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G380" s="18">
         <v>1300000</v>
@@ -9739,19 +9739,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F381" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G381" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9762,16 +9762,16 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F382" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G382" s="18">
         <v>1300000</v>
@@ -9785,16 +9785,16 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F383" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G383" s="18">
         <v>1300000</v>
@@ -9808,19 +9808,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F384" s="18">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="G384" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9831,16 +9831,16 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F385" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G385" s="18">
         <v>1350000</v>
@@ -9854,19 +9854,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F386" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G386" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9877,16 +9877,16 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F387" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G387" s="18">
         <v>1350000</v>
@@ -9900,19 +9900,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E388" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D388" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E388" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="F388" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G388" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9923,16 +9923,16 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F389" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G389" s="18">
         <v>1350000</v>
@@ -9946,16 +9946,16 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F390" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G390" s="18">
         <v>1350000</v>
@@ -9969,19 +9969,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F391" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G391" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -9992,19 +9992,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F392" s="18">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="G392" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -10015,16 +10015,16 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F393" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G393" s="18">
         <v>1300000</v>
@@ -10038,19 +10038,19 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F394" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G394" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H394" s="19"/>
       <c r="I394" s="19"/>
@@ -10061,19 +10061,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F395" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G395" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10084,16 +10084,16 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F396" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G396" s="18">
         <v>1300000</v>
@@ -10107,19 +10107,19 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F397" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G397" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H397" s="19"/>
       <c r="I397" s="19"/>
@@ -10130,16 +10130,16 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F398" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G398" s="18">
         <v>1300000</v>
@@ -10153,19 +10153,19 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F399" s="18">
-        <v>16200</v>
+        <v>39866</v>
       </c>
       <c r="G399" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H399" s="19"/>
       <c r="I399" s="19"/>
@@ -10176,13 +10176,13 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F400" s="18">
         <v>15600</v>
@@ -10199,19 +10199,19 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F401" s="18">
-        <v>18000</v>
+        <v>52000</v>
       </c>
       <c r="G401" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H401" s="19"/>
       <c r="I401" s="19"/>
@@ -10222,19 +10222,19 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F402" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G402" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H402" s="19"/>
       <c r="I402" s="19"/>
@@ -10245,16 +10245,16 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F403" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G403" s="18">
         <v>1300000</v>
@@ -10268,16 +10268,16 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F404" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G404" s="18">
         <v>1300000</v>
@@ -10291,19 +10291,19 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F405" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G405" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H405" s="19"/>
       <c r="I405" s="19"/>
@@ -10314,19 +10314,19 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F406" s="18">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="G406" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H406" s="19"/>
       <c r="I406" s="19"/>
@@ -10337,19 +10337,19 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F407" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G407" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H407" s="19"/>
       <c r="I407" s="19"/>
@@ -10360,16 +10360,16 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F408" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G408" s="18">
         <v>1350000</v>
@@ -10383,19 +10383,19 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F409" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G409" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H409" s="19"/>
       <c r="I409" s="19"/>
@@ -10406,19 +10406,19 @@
         <v>8</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D410" s="23" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E410" s="22" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F410" s="24">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G410" s="24">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H410" s="25"/>
       <c r="I410" s="25"/>

--- a/Data/EC/NIT-9017836861.xlsx
+++ b/Data/EC/NIT-9017836861.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3026607-556A-4730-A25D-E1E6106593D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5774FCBA-084B-4F01-8FE6-38ED487D27B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97180A85-5BA1-4BF0-88AD-B3B17D379717}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3E247FF-32EC-4696-95CC-815EEB9E7456}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,231 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050949953</t>
+  </si>
+  <si>
+    <t>ALEJANDRO REDONDO MANJARRES</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>73158889</t>
+  </si>
+  <si>
+    <t>LIBARDO ANTONIO RUIZ CORRALES</t>
+  </si>
+  <si>
+    <t>73125607</t>
+  </si>
+  <si>
+    <t>OMAR ABEL CORRALES YOUNG</t>
+  </si>
+  <si>
+    <t>9281970</t>
+  </si>
+  <si>
+    <t>CAMILO ENRIQUE CANTILLO ACUÑA</t>
+  </si>
+  <si>
+    <t>73144082</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS DAZA MOLINA</t>
+  </si>
+  <si>
+    <t>8980933</t>
+  </si>
+  <si>
+    <t>ORLANDO LUIS MERCADO MARRIAGA</t>
+  </si>
+  <si>
+    <t>73210447</t>
+  </si>
+  <si>
+    <t>MANUEL RODRIGUEZ FLOREZ</t>
+  </si>
+  <si>
+    <t>73133594</t>
+  </si>
+  <si>
+    <t>RENATO VELEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>73241216</t>
+  </si>
+  <si>
+    <t>EVER RAFAEL RAMIREZ QUIROZ</t>
+  </si>
+  <si>
+    <t>9288457</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER HUETO JIMENEZ</t>
+  </si>
+  <si>
+    <t>1051818216</t>
+  </si>
+  <si>
+    <t>DAGOBERTO MANUEL SERRANO MORA</t>
+  </si>
+  <si>
+    <t>1047452244</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID CASTELLANOS LIÑAN</t>
+  </si>
+  <si>
+    <t>1044916179</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO RODRIGUEZ BADILLO</t>
+  </si>
+  <si>
+    <t>73476327</t>
+  </si>
+  <si>
+    <t>JHON JOSE HERRERA OROZCO</t>
+  </si>
+  <si>
+    <t>1050950497</t>
+  </si>
+  <si>
+    <t>EDWIN ANTONIO RODRIGUEZ CARDONA</t>
+  </si>
+  <si>
+    <t>1143358549</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID VELEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1137195468</t>
+  </si>
+  <si>
+    <t>SAMUEL ZABALETA ACOSTA</t>
+  </si>
+  <si>
+    <t>1044924826</t>
+  </si>
+  <si>
+    <t>MAYKY RAFAEL GUARDO PEREZ</t>
+  </si>
+  <si>
+    <t>3881928</t>
+  </si>
+  <si>
+    <t>VICTOR CONTRERAS VASQUEZ</t>
+  </si>
+  <si>
+    <t>9041773</t>
+  </si>
+  <si>
+    <t>JAIME MELENDEZ URUETA</t>
+  </si>
+  <si>
+    <t>1044926873</t>
+  </si>
+  <si>
+    <t>DWAYT DAVID MURILLO ESALAS</t>
+  </si>
+  <si>
+    <t>1001835410</t>
+  </si>
+  <si>
+    <t>ROBER LUIS MACHACON PATERNINA</t>
+  </si>
+  <si>
+    <t>9149454</t>
+  </si>
+  <si>
+    <t>WALTER VERBEL PACHECO</t>
+  </si>
+  <si>
+    <t>73194059</t>
+  </si>
+  <si>
+    <t>WILLYS RAFAEL MORENO SIMANCAS</t>
+  </si>
+  <si>
+    <t>1001937399</t>
+  </si>
+  <si>
+    <t>KEVIN JOSE JULIO MIRANDA</t>
+  </si>
+  <si>
+    <t>1050955327</t>
+  </si>
+  <si>
+    <t>WILSON ENRIQUE SANJUAN MUÃ?OZ</t>
+  </si>
+  <si>
+    <t>1050971902</t>
+  </si>
+  <si>
+    <t>ARIEL HUETO TABORDA</t>
+  </si>
+  <si>
+    <t>9286379</t>
+  </si>
+  <si>
+    <t>RAFAEL FERNANDO HUETO CERDA</t>
+  </si>
+  <si>
+    <t>1047392997</t>
+  </si>
+  <si>
+    <t>JULIA MARGARITA PINEDO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1001835820</t>
+  </si>
+  <si>
+    <t>DAMIAN DARIO JINETE PATERNINA</t>
+  </si>
+  <si>
+    <t>1050976282</t>
+  </si>
+  <si>
+    <t>JAIDER RAMON JIMENEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>1007264623</t>
+  </si>
+  <si>
+    <t>IVAN ANDRES BELTRAN REVOLLEDO</t>
+  </si>
+  <si>
+    <t>1007130355</t>
+  </si>
+  <si>
+    <t>OSCAR LUIS PATERNINA MARRUGO</t>
+  </si>
+  <si>
+    <t>1052084619</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE FERNANDEZ VESCAINO</t>
+  </si>
+  <si>
+    <t>1049582557</t>
+  </si>
+  <si>
+    <t>KARINA NAVARRO AGUILAR</t>
+  </si>
+  <si>
+    <t>1100403843</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO ARROYO ATENCIA</t>
+  </si>
+  <si>
+    <t>1050954497</t>
+  </si>
+  <si>
+    <t>YORLEDIS BARRIOS GALVIS</t>
+  </si>
+  <si>
     <t>73189747</t>
   </si>
   <si>
@@ -74,343 +299,118 @@
     <t>2404</t>
   </si>
   <si>
-    <t>1050949953</t>
-  </si>
-  <si>
-    <t>ALEJANDRO REDONDO MANJARRES</t>
+    <t>9289872</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ROMERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>18878548</t>
+  </si>
+  <si>
+    <t>JAVIER FRANCISCO ACOSTA MEDINA</t>
+  </si>
+  <si>
+    <t>9290905</t>
+  </si>
+  <si>
+    <t>ALVARO BALLESTEROS VIOLA</t>
+  </si>
+  <si>
+    <t>1010001796</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES PEREZ ALDANA</t>
+  </si>
+  <si>
+    <t>73476267</t>
+  </si>
+  <si>
+    <t>OSVALDO RAFAEL JULIO GUERRERO</t>
+  </si>
+  <si>
+    <t>1050946091</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN CASTILLO PUELLO</t>
+  </si>
+  <si>
+    <t>1047510608</t>
+  </si>
+  <si>
+    <t>JULIO NELSON HERRERA CASSIANI</t>
+  </si>
+  <si>
+    <t>74189284</t>
+  </si>
+  <si>
+    <t>DIOGENES TIBADUIZA ARBOLEDA</t>
+  </si>
+  <si>
+    <t>1002390841</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS MORALES CAMARGO</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>9289927</t>
+  </si>
+  <si>
+    <t>ALFREDO MARTINEZ CARDONA</t>
+  </si>
+  <si>
+    <t>9290881</t>
+  </si>
+  <si>
+    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
+  </si>
+  <si>
+    <t>1050965496</t>
+  </si>
+  <si>
+    <t>IVAN DARIO HEREDIA PETRO</t>
+  </si>
+  <si>
+    <t>1143380306</t>
+  </si>
+  <si>
+    <t>EDWIN DAVID MARTINEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>1050964584</t>
+  </si>
+  <si>
+    <t>JAMES ELIAS DEL RIO GARCIA</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>72072781</t>
+  </si>
+  <si>
+    <t>JESUS GARCIA RIVALDO</t>
+  </si>
+  <si>
+    <t>1002058053</t>
+  </si>
+  <si>
+    <t>ALLEN DAVID TORRES ORTEGA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
   </si>
   <si>
     <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>9289927</t>
-  </si>
-  <si>
-    <t>ALFREDO MARTINEZ CARDONA</t>
-  </si>
-  <si>
-    <t>73158889</t>
-  </si>
-  <si>
-    <t>LIBARDO ANTONIO RUIZ CORRALES</t>
-  </si>
-  <si>
-    <t>73125607</t>
-  </si>
-  <si>
-    <t>OMAR ABEL CORRALES YOUNG</t>
-  </si>
-  <si>
-    <t>9289872</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS ROMERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>9281970</t>
-  </si>
-  <si>
-    <t>CAMILO ENRIQUE CANTILLO ACUÑA</t>
-  </si>
-  <si>
-    <t>73144082</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS DAZA MOLINA</t>
-  </si>
-  <si>
-    <t>8980933</t>
-  </si>
-  <si>
-    <t>ORLANDO LUIS MERCADO MARRIAGA</t>
-  </si>
-  <si>
-    <t>72072781</t>
-  </si>
-  <si>
-    <t>JESUS GARCIA RIVALDO</t>
-  </si>
-  <si>
-    <t>73210447</t>
-  </si>
-  <si>
-    <t>MANUEL RODRIGUEZ FLOREZ</t>
-  </si>
-  <si>
-    <t>73133594</t>
-  </si>
-  <si>
-    <t>RENATO VELEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>73241216</t>
-  </si>
-  <si>
-    <t>EVER RAFAEL RAMIREZ QUIROZ</t>
-  </si>
-  <si>
-    <t>9290881</t>
-  </si>
-  <si>
-    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
-  </si>
-  <si>
-    <t>1050965496</t>
-  </si>
-  <si>
-    <t>IVAN DARIO HEREDIA PETRO</t>
-  </si>
-  <si>
-    <t>9288457</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER HUETO JIMENEZ</t>
-  </si>
-  <si>
-    <t>1051818216</t>
-  </si>
-  <si>
-    <t>DAGOBERTO MANUEL SERRANO MORA</t>
-  </si>
-  <si>
-    <t>1047452244</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID CASTELLANOS LIÑAN</t>
-  </si>
-  <si>
-    <t>18878548</t>
-  </si>
-  <si>
-    <t>JAVIER FRANCISCO ACOSTA MEDINA</t>
-  </si>
-  <si>
-    <t>1044916179</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO RODRIGUEZ BADILLO</t>
-  </si>
-  <si>
-    <t>9290905</t>
-  </si>
-  <si>
-    <t>ALVARO BALLESTEROS VIOLA</t>
-  </si>
-  <si>
-    <t>73476327</t>
-  </si>
-  <si>
-    <t>JHON JOSE HERRERA OROZCO</t>
-  </si>
-  <si>
-    <t>1010001796</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES PEREZ ALDANA</t>
-  </si>
-  <si>
-    <t>1050950497</t>
-  </si>
-  <si>
-    <t>EDWIN ANTONIO RODRIGUEZ CARDONA</t>
-  </si>
-  <si>
-    <t>73476267</t>
-  </si>
-  <si>
-    <t>OSVALDO RAFAEL JULIO GUERRERO</t>
-  </si>
-  <si>
-    <t>1143358549</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID VELEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1137195468</t>
-  </si>
-  <si>
-    <t>SAMUEL ZABALETA ACOSTA</t>
-  </si>
-  <si>
-    <t>1044924826</t>
-  </si>
-  <si>
-    <t>MAYKY RAFAEL GUARDO PEREZ</t>
-  </si>
-  <si>
-    <t>3881928</t>
-  </si>
-  <si>
-    <t>VICTOR CONTRERAS VASQUEZ</t>
-  </si>
-  <si>
-    <t>9041773</t>
-  </si>
-  <si>
-    <t>JAIME MELENDEZ URUETA</t>
-  </si>
-  <si>
-    <t>1050946091</t>
-  </si>
-  <si>
-    <t>JUAN ESTEBAN CASTILLO PUELLO</t>
-  </si>
-  <si>
-    <t>1044926873</t>
-  </si>
-  <si>
-    <t>DWAYT DAVID MURILLO ESALAS</t>
-  </si>
-  <si>
-    <t>1001835410</t>
-  </si>
-  <si>
-    <t>ROBER LUIS MACHACON PATERNINA</t>
-  </si>
-  <si>
-    <t>9149454</t>
-  </si>
-  <si>
-    <t>WALTER VERBEL PACHECO</t>
-  </si>
-  <si>
-    <t>1047510608</t>
-  </si>
-  <si>
-    <t>JULIO NELSON HERRERA CASSIANI</t>
-  </si>
-  <si>
-    <t>74189284</t>
-  </si>
-  <si>
-    <t>DIOGENES TIBADUIZA ARBOLEDA</t>
-  </si>
-  <si>
-    <t>1143380306</t>
-  </si>
-  <si>
-    <t>EDWIN DAVID MARTINEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>73194059</t>
-  </si>
-  <si>
-    <t>WILLYS RAFAEL MORENO SIMANCAS</t>
-  </si>
-  <si>
-    <t>1002390841</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS MORALES CAMARGO</t>
-  </si>
-  <si>
-    <t>1001937399</t>
-  </si>
-  <si>
-    <t>KEVIN JOSE JULIO MIRANDA</t>
-  </si>
-  <si>
-    <t>1050955327</t>
-  </si>
-  <si>
-    <t>WILSON ENRIQUE SANJUAN MUÃ?OZ</t>
-  </si>
-  <si>
-    <t>1050971902</t>
-  </si>
-  <si>
-    <t>ARIEL HUETO TABORDA</t>
-  </si>
-  <si>
-    <t>9286379</t>
-  </si>
-  <si>
-    <t>RAFAEL FERNANDO HUETO CERDA</t>
-  </si>
-  <si>
-    <t>1047392997</t>
-  </si>
-  <si>
-    <t>JULIA MARGARITA PINEDO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1001835820</t>
-  </si>
-  <si>
-    <t>DAMIAN DARIO JINETE PATERNINA</t>
-  </si>
-  <si>
-    <t>1050976282</t>
-  </si>
-  <si>
-    <t>JAIDER RAMON JIMENEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>1007264623</t>
-  </si>
-  <si>
-    <t>IVAN ANDRES BELTRAN REVOLLEDO</t>
-  </si>
-  <si>
-    <t>1007130355</t>
-  </si>
-  <si>
-    <t>OSCAR LUIS PATERNINA MARRUGO</t>
-  </si>
-  <si>
-    <t>1052084619</t>
-  </si>
-  <si>
-    <t>MARIA CELESTE FERNANDEZ VESCAINO</t>
-  </si>
-  <si>
-    <t>1049582557</t>
-  </si>
-  <si>
-    <t>KARINA NAVARRO AGUILAR</t>
-  </si>
-  <si>
-    <t>1100403843</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO ARROYO ATENCIA</t>
-  </si>
-  <si>
-    <t>1050954497</t>
-  </si>
-  <si>
-    <t>YORLEDIS BARRIOS GALVIS</t>
-  </si>
-  <si>
-    <t>1050964584</t>
-  </si>
-  <si>
-    <t>JAMES ELIAS DEL RIO GARCIA</t>
-  </si>
-  <si>
-    <t>1002058053</t>
-  </si>
-  <si>
-    <t>ALLEN DAVID TORRES ORTEGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -522,9 +524,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -724,23 +724,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,10 +768,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +824,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA01B95A-8CC1-52EB-5403-AD3E20F5D475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2250297D-CF9C-2B2A-13C4-D9317648B579}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0330E8D2-1671-48FC-92CF-45F0CF812E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E569AB69-31C7-48A7-990B-148B757841BF}">
   <dimension ref="B2:J416"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1373,13 +1373,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>15600</v>
+        <v>72000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1390,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1413,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1436,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1551,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1597,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1620,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1643,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1666,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1689,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1712,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>1350000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1735,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>1350000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>72000</v>
+        <v>39866</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1781,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1827,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>1500000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1873,19 +1873,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1896,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
         <v>54000</v>
@@ -1919,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
         <v>54000</v>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1965,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1988,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G45" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2057,16 +2057,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
         <v>1300000</v>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -2103,16 +2103,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>39866</v>
       </c>
       <c r="G49" s="18">
         <v>1300000</v>
@@ -2126,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G51" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2172,16 +2172,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>52000</v>
+        <v>39866</v>
       </c>
       <c r="G52" s="18">
         <v>1300000</v>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2218,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F54" s="18">
-        <v>18000</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F55" s="18">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="G55" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2264,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F56" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G56" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F57" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F58" s="18">
         <v>60000</v>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F59" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2356,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F60" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2379,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F61" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F62" s="18">
-        <v>15600</v>
+        <v>100000</v>
       </c>
       <c r="G62" s="18">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2425,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G63" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2448,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G64" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2471,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E65" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G65" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2494,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G66" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2517,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F69" s="18">
-        <v>52000</v>
+        <v>67200</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2586,16 +2586,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F70" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G70" s="18">
         <v>1350000</v>
@@ -2609,16 +2609,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F71" s="18">
-        <v>54000</v>
+        <v>46800</v>
       </c>
       <c r="G71" s="18">
         <v>1350000</v>
@@ -2632,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F72" s="18">
         <v>54000</v>
@@ -2655,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F73" s="18">
         <v>54000</v>
@@ -2678,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F74" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G74" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2701,13 +2701,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F75" s="18">
         <v>54000</v>
@@ -2724,13 +2724,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F76" s="18">
         <v>54000</v>
@@ -2747,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F77" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2770,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F78" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G78" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F79" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2816,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F80" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G80" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2839,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F81" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2862,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F82" s="18">
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F83" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2908,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F84" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2931,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
@@ -2954,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F86" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G86" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2977,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F87" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3000,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G88" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3023,13 +3023,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -3046,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -3069,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>30000</v>
+        <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3092,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F92" s="18">
-        <v>100000</v>
+        <v>72000</v>
       </c>
       <c r="G92" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3115,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F93" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G93" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3138,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F94" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G94" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3161,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F95" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F96" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G96" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F97" s="18">
-        <v>100000</v>
+        <v>52000</v>
       </c>
       <c r="G97" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3230,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F98" s="18">
-        <v>100000</v>
+        <v>54000</v>
       </c>
       <c r="G98" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3253,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F99" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F100" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G100" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F101" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G101" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3322,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F102" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G102" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3345,13 +3345,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F103" s="18">
         <v>54000</v>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F104" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G104" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3391,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F105" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G105" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3414,19 +3414,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F106" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3437,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F107" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3460,16 +3460,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G108" s="18">
         <v>1300000</v>
@@ -3483,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F109" s="18">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="G109" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3506,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
         <v>54000</v>
       </c>
       <c r="G110" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3529,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F111" s="18">
-        <v>54000</v>
+        <v>25200</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3552,16 +3552,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F112" s="18">
-        <v>25200</v>
+        <v>52000</v>
       </c>
       <c r="G112" s="18">
         <v>1300000</v>
@@ -3575,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F113" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G113" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3598,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F114" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G114" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3621,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F115" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G115" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3644,13 +3644,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F116" s="18">
         <v>52000</v>
@@ -3667,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F117" s="18">
         <v>52000</v>
@@ -3690,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F118" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G118" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3713,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F119" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G119" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3736,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F120" s="18">
         <v>54000</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3759,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F121" s="18">
         <v>54000</v>
       </c>
       <c r="G121" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3782,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F122" s="18">
         <v>54000</v>
       </c>
       <c r="G122" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3805,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F123" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3828,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F124" s="18">
         <v>54000</v>
       </c>
       <c r="G124" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3851,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F125" s="18">
         <v>54000</v>
       </c>
       <c r="G125" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3874,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="E126" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F126" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3897,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E127" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F127" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G127" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3920,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F128" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G128" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3943,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F129" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G129" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3966,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F130" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G130" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3989,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F131" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G131" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4012,13 +4012,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F132" s="18">
         <v>54000</v>
@@ -4035,13 +4035,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F133" s="18">
         <v>54000</v>
@@ -4058,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F134" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G134" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4081,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F135" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G135" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4104,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F136" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G136" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4127,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F137" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G137" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4150,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F138" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G138" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4173,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F139" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G139" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4196,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F140" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G140" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4219,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F141" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G141" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4242,13 +4242,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F142" s="18">
         <v>72000</v>
@@ -4265,16 +4265,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F143" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G143" s="18">
         <v>1300000</v>
@@ -4288,13 +4288,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F144" s="18">
         <v>52000</v>
@@ -4311,13 +4311,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F145" s="18">
         <v>52000</v>
@@ -4334,13 +4334,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F146" s="18">
         <v>52000</v>
@@ -4357,13 +4357,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F147" s="18">
         <v>52000</v>
@@ -4380,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F148" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G148" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4403,13 +4403,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F149" s="18">
         <v>52000</v>
@@ -4426,16 +4426,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F150" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G150" s="18">
         <v>1300000</v>
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F151" s="18">
         <v>52000</v>
@@ -4472,13 +4472,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F152" s="18">
         <v>52000</v>
@@ -4495,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F153" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G153" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4518,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F154" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G154" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4541,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F155" s="18">
         <v>52000</v>
@@ -4564,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F156" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G156" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4587,13 +4587,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F157" s="18">
         <v>52000</v>
@@ -4610,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F158" s="18">
-        <v>21600</v>
+        <v>54000</v>
       </c>
       <c r="G158" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4633,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F159" s="18">
-        <v>72000</v>
+        <v>46800</v>
       </c>
       <c r="G159" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4656,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F160" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G160" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4679,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F161" s="18">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="G161" s="18">
-        <v>1800000</v>
+        <v>2500000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4702,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F162" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G162" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4725,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F163" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G163" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4748,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F164" s="18">
-        <v>67200</v>
+        <v>52000</v>
       </c>
       <c r="G164" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4771,16 +4771,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F165" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G165" s="18">
         <v>1350000</v>
@@ -4794,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F166" s="18">
         <v>54000</v>
@@ -4817,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F167" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G167" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4840,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F168" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G168" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4863,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F169" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G169" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4886,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F170" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G170" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4909,13 +4909,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F171" s="18">
         <v>54000</v>
@@ -4932,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F172" s="18">
         <v>54000</v>
@@ -4955,13 +4955,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F173" s="18">
         <v>54000</v>
@@ -4978,19 +4978,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F174" s="18">
-        <v>46800</v>
+        <v>52000</v>
       </c>
       <c r="G174" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5001,16 +5001,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F175" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G175" s="18">
         <v>1350000</v>
@@ -5024,13 +5024,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F176" s="18">
         <v>54000</v>
@@ -5047,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F177" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G177" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5070,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F178" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G178" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5093,19 +5093,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F179" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G179" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5116,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F180" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G180" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5139,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F181" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G181" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5162,19 +5162,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F182" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G182" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5185,16 +5185,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F183" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G183" s="18">
         <v>1350000</v>
@@ -5208,13 +5208,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F184" s="18">
         <v>54000</v>
@@ -5231,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F185" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G185" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5254,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F186" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G186" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5277,13 +5277,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F187" s="18">
         <v>54000</v>
@@ -5300,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F188" s="18">
         <v>54000</v>
@@ -5323,13 +5323,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F189" s="18">
         <v>54000</v>
@@ -5346,16 +5346,16 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F190" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G190" s="18">
         <v>1300000</v>
@@ -5369,13 +5369,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F191" s="18">
         <v>52000</v>
@@ -5392,13 +5392,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D192" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D192" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="E192" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F192" s="18">
         <v>52000</v>
@@ -5415,19 +5415,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F193" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G193" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5438,13 +5438,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F194" s="18">
         <v>52000</v>
@@ -5461,13 +5461,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F195" s="18">
         <v>52000</v>
@@ -5484,13 +5484,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F196" s="18">
         <v>52000</v>
@@ -5507,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F197" s="18">
         <v>52000</v>
@@ -5530,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F198" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G198" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5553,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F199" s="18">
         <v>54000</v>
       </c>
       <c r="G199" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5576,19 +5576,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F200" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G200" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5599,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F201" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G201" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5622,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F202" s="18">
         <v>54000</v>
       </c>
       <c r="G202" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5645,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F203" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G203" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5668,19 +5668,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F204" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G204" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5691,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F205" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G205" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5714,16 +5714,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F206" s="18">
-        <v>16200</v>
+        <v>54000</v>
       </c>
       <c r="G206" s="18">
         <v>1350000</v>
@@ -5737,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F207" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G207" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5760,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F208" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G208" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5783,19 +5783,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F209" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G209" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5806,13 +5806,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F210" s="18">
         <v>54000</v>
@@ -5829,13 +5829,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F211" s="18">
         <v>54000</v>
@@ -5852,19 +5852,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F212" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G212" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5875,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F213" s="18">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="G213" s="18">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5898,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F214" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G214" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5921,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F215" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G215" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5944,13 +5944,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F216" s="18">
         <v>52000</v>
@@ -5967,19 +5967,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F217" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G217" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5990,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F218" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G218" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6013,19 +6013,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F219" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G219" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6036,13 +6036,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F220" s="18">
         <v>52000</v>
@@ -6059,16 +6059,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F221" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G221" s="18">
         <v>1300000</v>
@@ -6082,19 +6082,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F222" s="18">
-        <v>15600</v>
+        <v>72000</v>
       </c>
       <c r="G222" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6105,19 +6105,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F223" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G223" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6128,19 +6128,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F224" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G224" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6151,19 +6151,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F225" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G225" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6174,13 +6174,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F226" s="18">
         <v>52000</v>
@@ -6197,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F227" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G227" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6220,19 +6220,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F228" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G228" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6243,13 +6243,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F229" s="18">
         <v>52000</v>
@@ -6266,16 +6266,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F230" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G230" s="18">
         <v>1300000</v>
@@ -6289,13 +6289,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F231" s="18">
         <v>52000</v>
@@ -6312,13 +6312,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F232" s="18">
         <v>52000</v>
@@ -6335,19 +6335,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F233" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G233" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6358,13 +6358,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F234" s="18">
         <v>52000</v>
@@ -6381,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F235" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G235" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6404,19 +6404,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F236" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G236" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6427,16 +6427,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F237" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G237" s="18">
         <v>1300000</v>
@@ -6450,13 +6450,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F238" s="18">
         <v>52000</v>
@@ -6473,19 +6473,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F239" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G239" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6496,19 +6496,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F240" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G240" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6519,19 +6519,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F241" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G241" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6542,13 +6542,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F242" s="18">
         <v>52000</v>
@@ -6565,13 +6565,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F243" s="18">
         <v>52000</v>
@@ -6588,13 +6588,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F244" s="18">
         <v>52000</v>
@@ -6611,19 +6611,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F245" s="18">
-        <v>18000</v>
+        <v>72000</v>
       </c>
       <c r="G245" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6634,19 +6634,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F246" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G246" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6657,19 +6657,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F247" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G247" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6680,19 +6680,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F248" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G248" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6703,19 +6703,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F249" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G249" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6726,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F250" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G250" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6749,19 +6749,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D251" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D251" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="E251" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F251" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G251" s="18">
-        <v>1500000</v>
+        <v>1350000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6772,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F252" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G252" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6795,16 +6795,16 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F253" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G253" s="18">
         <v>1300000</v>
@@ -6818,19 +6818,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F254" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G254" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6841,13 +6841,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F255" s="18">
         <v>52000</v>
@@ -6864,13 +6864,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F256" s="18">
         <v>52000</v>
@@ -6887,19 +6887,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F257" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G257" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6910,19 +6910,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F258" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G258" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6933,13 +6933,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F259" s="18">
         <v>52000</v>
@@ -6956,19 +6956,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F260" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G260" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6979,19 +6979,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F261" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G261" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7002,13 +7002,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F262" s="18">
         <v>54000</v>
@@ -7025,13 +7025,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F263" s="18">
         <v>54000</v>
@@ -7048,19 +7048,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F264" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G264" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7071,19 +7071,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F265" s="18">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="G265" s="18">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7094,13 +7094,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F266" s="18">
         <v>54000</v>
@@ -7117,13 +7117,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F267" s="18">
         <v>54000</v>
@@ -7140,19 +7140,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F268" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G268" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7163,13 +7163,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F269" s="18">
         <v>54000</v>
@@ -7186,13 +7186,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F270" s="18">
         <v>54000</v>
@@ -7209,19 +7209,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F271" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G271" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7232,19 +7232,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F272" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G272" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7255,19 +7255,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F273" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G273" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7278,19 +7278,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F274" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G274" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7301,19 +7301,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F275" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G275" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7324,19 +7324,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F276" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G276" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7347,19 +7347,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F277" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G277" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7370,13 +7370,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F278" s="18">
         <v>52000</v>
@@ -7393,19 +7393,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F279" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G279" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7416,19 +7416,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F280" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G280" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7439,16 +7439,16 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F281" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G281" s="18">
         <v>1300000</v>
@@ -7462,13 +7462,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F282" s="18">
         <v>52000</v>
@@ -7485,13 +7485,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F283" s="18">
         <v>52000</v>
@@ -7508,13 +7508,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F284" s="18">
         <v>52000</v>
@@ -7531,19 +7531,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F285" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G285" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7554,13 +7554,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F286" s="18">
         <v>52000</v>
@@ -7577,19 +7577,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F287" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G287" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7600,19 +7600,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F288" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G288" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7623,19 +7623,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F289" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G289" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7646,19 +7646,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F290" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G290" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7669,13 +7669,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F291" s="18">
         <v>54000</v>
@@ -7692,13 +7692,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F292" s="18">
         <v>54000</v>
@@ -7715,13 +7715,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F293" s="18">
         <v>54000</v>
@@ -7738,19 +7738,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F294" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G294" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7761,19 +7761,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F295" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G295" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7784,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F296" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G296" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7807,19 +7807,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F297" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G297" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7830,19 +7830,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F298" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G298" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7853,19 +7853,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F299" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G299" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7876,19 +7876,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F300" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G300" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7899,19 +7899,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F301" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G301" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7922,19 +7922,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F302" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G302" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7945,19 +7945,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F303" s="18">
         <v>54000</v>
       </c>
       <c r="G303" s="18">
-        <v>1160000</v>
+        <v>1350000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7968,19 +7968,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F304" s="18">
-        <v>16200</v>
+        <v>52000</v>
       </c>
       <c r="G304" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7991,19 +7991,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F305" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G305" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8014,13 +8014,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F306" s="18">
         <v>54000</v>
@@ -8037,19 +8037,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F307" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G307" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8060,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F308" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G308" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8083,19 +8083,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F309" s="18">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="G309" s="18">
-        <v>1350000</v>
+        <v>1800000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8106,13 +8106,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F310" s="18">
         <v>54000</v>
@@ -8129,19 +8129,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F311" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G311" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8152,19 +8152,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F312" s="18">
-        <v>15600</v>
+        <v>60000</v>
       </c>
       <c r="G312" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8175,13 +8175,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F313" s="18">
         <v>52000</v>
@@ -8198,19 +8198,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F314" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G314" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8221,19 +8221,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F315" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G315" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8244,13 +8244,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F316" s="18">
         <v>52000</v>
@@ -8267,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F317" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G317" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8290,19 +8290,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F318" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G318" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8313,19 +8313,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F319" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G319" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8336,16 +8336,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F320" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G320" s="18">
         <v>1300000</v>
@@ -8359,19 +8359,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F321" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G321" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8382,19 +8382,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F322" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G322" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8405,19 +8405,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F323" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G323" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8428,13 +8428,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F324" s="18">
         <v>52000</v>
@@ -8451,13 +8451,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F325" s="18">
         <v>52000</v>
@@ -8474,19 +8474,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F326" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G326" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8497,19 +8497,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F327" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G327" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8520,19 +8520,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F328" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G328" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8543,19 +8543,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F329" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G329" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8566,13 +8566,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F330" s="18">
         <v>52000</v>
@@ -8589,19 +8589,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F331" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G331" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8612,19 +8612,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F332" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G332" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8635,13 +8635,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F333" s="18">
         <v>52000</v>
@@ -8658,13 +8658,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F334" s="18">
         <v>52000</v>
@@ -8681,13 +8681,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F335" s="18">
         <v>52000</v>
@@ -8704,19 +8704,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F336" s="18">
-        <v>21600</v>
+        <v>52000</v>
       </c>
       <c r="G336" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8727,19 +8727,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F337" s="18">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="G337" s="18">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8750,19 +8750,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F338" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G338" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8773,19 +8773,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F339" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G339" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8796,19 +8796,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F340" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G340" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8819,19 +8819,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F341" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G341" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8842,19 +8842,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F342" s="18">
-        <v>72000</v>
+        <v>52000</v>
       </c>
       <c r="G342" s="18">
-        <v>1800000</v>
+        <v>1300000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8865,19 +8865,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F343" s="18">
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="G343" s="18">
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8888,19 +8888,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F344" s="18">
-        <v>15600</v>
+        <v>54000</v>
       </c>
       <c r="G344" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8911,19 +8911,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F345" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G345" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8934,13 +8934,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F346" s="18">
         <v>52000</v>
@@ -8957,13 +8957,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F347" s="18">
         <v>52000</v>
@@ -8980,13 +8980,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F348" s="18">
         <v>52000</v>
@@ -9003,19 +9003,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F349" s="18">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="G349" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9026,13 +9026,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F350" s="18">
         <v>52000</v>
@@ -9049,13 +9049,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F351" s="18">
         <v>52000</v>
@@ -9072,16 +9072,16 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F352" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G352" s="18">
         <v>1300000</v>
@@ -9095,13 +9095,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F353" s="18">
         <v>52000</v>
@@ -9118,13 +9118,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F354" s="18">
         <v>52000</v>
@@ -9141,19 +9141,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="F355" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G355" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9164,13 +9164,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F356" s="18">
         <v>52000</v>
@@ -9187,13 +9187,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F357" s="18">
         <v>52000</v>
@@ -9210,19 +9210,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F358" s="18">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G358" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9233,16 +9233,16 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F359" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G359" s="18">
         <v>1300000</v>
@@ -9256,13 +9256,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F360" s="18">
         <v>15600</v>
@@ -9279,19 +9279,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F361" s="18">
-        <v>52000</v>
+        <v>21600</v>
       </c>
       <c r="G361" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9302,19 +9302,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F362" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G362" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9325,16 +9325,16 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F363" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G363" s="18">
         <v>1300000</v>
@@ -9348,19 +9348,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F364" s="18">
-        <v>52000</v>
+        <v>18000</v>
       </c>
       <c r="G364" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9371,16 +9371,16 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F365" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G365" s="18">
         <v>1300000</v>
@@ -9394,19 +9394,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F366" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G366" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9417,19 +9417,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F367" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G367" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9440,13 +9440,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F368" s="18">
         <v>15600</v>
@@ -9463,19 +9463,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F369" s="18">
-        <v>52000</v>
+        <v>30000</v>
       </c>
       <c r="G369" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9486,19 +9486,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F370" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G370" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9509,19 +9509,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F371" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G371" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9532,16 +9532,16 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F372" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G372" s="18">
         <v>1300000</v>
@@ -9555,19 +9555,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F373" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G373" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9578,19 +9578,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F374" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G374" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9601,19 +9601,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F375" s="18">
-        <v>39866</v>
+        <v>21600</v>
       </c>
       <c r="G375" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9624,13 +9624,13 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F376" s="18">
         <v>15600</v>
@@ -9647,16 +9647,16 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F377" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G377" s="18">
         <v>1300000</v>
@@ -9670,19 +9670,19 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F378" s="18">
-        <v>52000</v>
+        <v>21600</v>
       </c>
       <c r="G378" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H378" s="19"/>
       <c r="I378" s="19"/>
@@ -9693,19 +9693,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F379" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G379" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9716,19 +9716,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F380" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G380" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9739,19 +9739,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F381" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G381" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9762,16 +9762,16 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F382" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G382" s="18">
         <v>1300000</v>
@@ -9785,19 +9785,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F383" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G383" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9808,13 +9808,13 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F384" s="18">
         <v>16200</v>
@@ -9831,19 +9831,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F385" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G385" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9854,19 +9854,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F386" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G386" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9877,19 +9877,19 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F387" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G387" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H387" s="19"/>
       <c r="I387" s="19"/>
@@ -9900,19 +9900,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F388" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G388" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9923,19 +9923,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F389" s="18">
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="G389" s="18">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9946,19 +9946,19 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F390" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G390" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H390" s="19"/>
       <c r="I390" s="19"/>
@@ -9969,16 +9969,16 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F391" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G391" s="18">
         <v>1350000</v>
@@ -9992,19 +9992,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F392" s="18">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="G392" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -10015,16 +10015,16 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F393" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G393" s="18">
         <v>1300000</v>
@@ -10038,16 +10038,16 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F394" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G394" s="18">
         <v>1300000</v>
@@ -10061,19 +10061,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F395" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G395" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10084,19 +10084,19 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F396" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G396" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H396" s="19"/>
       <c r="I396" s="19"/>
@@ -10107,19 +10107,19 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F397" s="18">
-        <v>52000</v>
+        <v>16200</v>
       </c>
       <c r="G397" s="18">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="H397" s="19"/>
       <c r="I397" s="19"/>
@@ -10130,16 +10130,16 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F398" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G398" s="18">
         <v>1300000</v>
@@ -10153,16 +10153,16 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F399" s="18">
-        <v>39866</v>
+        <v>15600</v>
       </c>
       <c r="G399" s="18">
         <v>1300000</v>
@@ -10176,13 +10176,13 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F400" s="18">
         <v>15600</v>
@@ -10199,19 +10199,19 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F401" s="18">
-        <v>52000</v>
+        <v>21600</v>
       </c>
       <c r="G401" s="18">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="H401" s="19"/>
       <c r="I401" s="19"/>
@@ -10222,16 +10222,16 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F402" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G402" s="18">
         <v>1300000</v>
@@ -10245,16 +10245,16 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F403" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G403" s="18">
         <v>1300000</v>
@@ -10268,16 +10268,16 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F404" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G404" s="18">
         <v>1300000</v>
@@ -10291,16 +10291,16 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F405" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G405" s="18">
         <v>1300000</v>
@@ -10314,19 +10314,19 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D406" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E406" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E406" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F406" s="18">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="G406" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H406" s="19"/>
       <c r="I406" s="19"/>
@@ -10337,16 +10337,16 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D407" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E407" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E407" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F407" s="18">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G407" s="18">
         <v>1350000</v>
@@ -10360,19 +10360,19 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D408" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E408" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E408" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F408" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G408" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H408" s="19"/>
       <c r="I408" s="19"/>
@@ -10383,19 +10383,19 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D409" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E409" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E409" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F409" s="18">
-        <v>54000</v>
+        <v>15600</v>
       </c>
       <c r="G409" s="18">
-        <v>1350000</v>
+        <v>1300000</v>
       </c>
       <c r="H409" s="19"/>
       <c r="I409" s="19"/>
@@ -10406,16 +10406,16 @@
         <v>8</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D410" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E410" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E410" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="F410" s="24">
-        <v>54000</v>
+        <v>16200</v>
       </c>
       <c r="G410" s="24">
         <v>1350000</v>
